--- a/resource/responsibility.xlsx
+++ b/resource/responsibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="560" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="29440" yWindow="1340" windowWidth="28160" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>complex data set</t>
   </si>
@@ -59,24 +59,15 @@
     <t xml:space="preserve">prototype </t>
   </si>
   <si>
-    <t xml:space="preserve">insights </t>
-  </si>
-  <si>
     <t>understand</t>
   </si>
   <si>
     <t>cross-functionally</t>
   </si>
   <si>
-    <t>identify opportunity</t>
-  </si>
-  <si>
     <t>design</t>
   </si>
   <si>
-    <t>assess improvement</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -134,42 +125,18 @@
     <t>data mining</t>
   </si>
   <si>
-    <t>solve problem</t>
-  </si>
-  <si>
-    <t>identify trend</t>
-  </si>
-  <si>
     <t>product decision</t>
   </si>
   <si>
     <t>product launch</t>
   </si>
   <si>
-    <t>design experiment</t>
-  </si>
-  <si>
-    <t>evaluate experiment</t>
-  </si>
-  <si>
-    <t>monitor metric</t>
-  </si>
-  <si>
-    <t>evaluate metric</t>
-  </si>
-  <si>
-    <t>define metric</t>
-  </si>
-  <si>
     <t>product operations</t>
   </si>
   <si>
     <t>exploratory analysis</t>
   </si>
   <si>
-    <t>build model</t>
-  </si>
-  <si>
     <t>product leadership</t>
   </si>
   <si>
@@ -185,9 +152,6 @@
     <t>problem statement</t>
   </si>
   <si>
-    <t>build solution</t>
-  </si>
-  <si>
     <t>architect system</t>
   </si>
   <si>
@@ -197,15 +161,9 @@
     <t>ensue system stability</t>
   </si>
   <si>
-    <t>build interface</t>
-  </si>
-  <si>
     <t>surface insight</t>
   </si>
   <si>
-    <t>drive key decision</t>
-  </si>
-  <si>
     <t xml:space="preserve">provide leadership </t>
   </si>
   <si>
@@ -239,9 +197,6 @@
     <t>statistical model</t>
   </si>
   <si>
-    <t>create rule</t>
-  </si>
-  <si>
     <t>manage decision</t>
   </si>
   <si>
@@ -275,66 +230,30 @@
     <t>automate analyse</t>
   </si>
   <si>
-    <t>mine data</t>
-  </si>
-  <si>
     <t>implement</t>
   </si>
   <si>
-    <t>develop system</t>
-  </si>
-  <si>
-    <t>explore opportunity</t>
-  </si>
-  <si>
     <t>ad-hoc exploratory</t>
   </si>
   <si>
     <t>explanatory analysis</t>
   </si>
   <si>
-    <t>ingest dataset</t>
-  </si>
-  <si>
-    <t>transform dataset</t>
-  </si>
-  <si>
-    <t>manipulate dataset</t>
-  </si>
-  <si>
     <t>information</t>
   </si>
   <si>
     <t>construct</t>
   </si>
   <si>
-    <t>discover fact</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> construct fact</t>
-  </si>
-  <si>
     <t>interface</t>
   </si>
   <si>
-    <t>develop model</t>
-  </si>
-  <si>
-    <t>test model</t>
-  </si>
-  <si>
-    <t>validate model</t>
-  </si>
-  <si>
     <t xml:space="preserve">ownership </t>
   </si>
   <si>
     <t xml:space="preserve">data wrangling </t>
   </si>
   <si>
-    <t>discover pattern</t>
-  </si>
-  <si>
     <t>test hypotheses</t>
   </si>
   <si>
@@ -359,9 +278,6 @@
     <t>simulation</t>
   </si>
   <si>
-    <t>support platform</t>
-  </si>
-  <si>
     <t>business problem</t>
   </si>
   <si>
@@ -374,16 +290,121 @@
     <t>report</t>
   </si>
   <si>
-    <t>drive Model</t>
-  </si>
-  <si>
-    <t>track Activity</t>
-  </si>
-  <si>
     <t>word</t>
   </si>
   <si>
-    <t>value</t>
+    <t>support … platform</t>
+  </si>
+  <si>
+    <t>discover … pattern</t>
+  </si>
+  <si>
+    <t>develop ... model</t>
+  </si>
+  <si>
+    <t>test ... model</t>
+  </si>
+  <si>
+    <t>validate ... model</t>
+  </si>
+  <si>
+    <t>construct ... fact</t>
+  </si>
+  <si>
+    <t>discover ... fact</t>
+  </si>
+  <si>
+    <t>manipulate ... dataset</t>
+  </si>
+  <si>
+    <t>transform … dataset</t>
+  </si>
+  <si>
+    <t>transform … data set</t>
+  </si>
+  <si>
+    <t>manipulate ... data set</t>
+  </si>
+  <si>
+    <t>ingest … dataset</t>
+  </si>
+  <si>
+    <t>ingest … data set</t>
+  </si>
+  <si>
+    <t>explore … opportunity</t>
+  </si>
+  <si>
+    <t>develop ... system</t>
+  </si>
+  <si>
+    <t>mine … data</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>decision making</t>
+  </si>
+  <si>
+    <t>create … rule</t>
+  </si>
+  <si>
+    <t>drive ... decision</t>
+  </si>
+  <si>
+    <t>build … interface</t>
+  </si>
+  <si>
+    <t>build … solution</t>
+  </si>
+  <si>
+    <t>build … model</t>
+  </si>
+  <si>
+    <t>define … metric</t>
+  </si>
+  <si>
+    <t>evaluate ... metric</t>
+  </si>
+  <si>
+    <t>monitor ... metric</t>
+  </si>
+  <si>
+    <t>evaluate ... experiment</t>
+  </si>
+  <si>
+    <t>design ... experiment</t>
+  </si>
+  <si>
+    <t>identify ... trend</t>
+  </si>
+  <si>
+    <t>solve … problem</t>
+  </si>
+  <si>
+    <t>cost benefit</t>
+  </si>
+  <si>
+    <t>identify … opportunity</t>
+  </si>
+  <si>
+    <t>assess ... improvement</t>
+  </si>
+  <si>
+    <t>cross functionally</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>drive ... model</t>
+  </si>
+  <si>
+    <t>track ... activity</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -399,12 +420,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -419,8 +446,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,6 +458,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -698,26 +729,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -741,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -749,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -757,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -765,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -773,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -781,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -789,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -797,25 +829,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -823,175 +855,175 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -999,63 +1031,63 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1063,23 +1095,23 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1087,47 +1119,47 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1135,31 +1167,31 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1167,47 +1199,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1215,7 +1247,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1223,7 +1255,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1231,7 +1263,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1239,7 +1271,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1247,7 +1279,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1255,7 +1287,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1263,7 +1295,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1271,7 +1303,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1279,7 +1311,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1287,7 +1319,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1295,7 +1327,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1303,7 +1335,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1311,7 +1343,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1319,7 +1351,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1327,7 +1359,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1335,7 +1367,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1343,7 +1375,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1351,7 +1383,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1359,7 +1391,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1367,7 +1399,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1375,7 +1407,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1383,7 +1415,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1391,7 +1423,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1399,7 +1431,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1407,7 +1439,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1415,7 +1447,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1423,7 +1455,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1431,7 +1463,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1439,7 +1471,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1447,7 +1479,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1455,7 +1487,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1463,7 +1495,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1479,7 +1511,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1487,7 +1519,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1495,7 +1527,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1503,7 +1535,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1511,7 +1543,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1519,7 +1551,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1527,7 +1559,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1535,7 +1567,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1543,7 +1575,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1551,7 +1583,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1559,7 +1591,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1567,7 +1599,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1575,7 +1607,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1583,7 +1615,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1591,7 +1623,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1599,7 +1631,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1607,7 +1639,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1615,7 +1647,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1623,7 +1655,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1631,7 +1663,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1639,7 +1671,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1647,9 +1679,65 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125">
         <v>1</v>
       </c>
     </row>
